--- a/biology/Zoologie/Hemimyzon/Hemimyzon.xlsx
+++ b/biology/Zoologie/Hemimyzon/Hemimyzon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hemimyzon est un genre de poissons téléostéens de la famille des Balitoridae et de l'ordre des Cypriniformes.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (10 juillet 2015)[1] 14 espèces :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (10 juillet 2015) 14 espèces :
 Hemimyzon confluens Kottelat, 2000
 Hemimyzon ecdyonuroides Freyhof &amp; Herder, 2002
 Hemimyzon formosanus (Boulenger, 1894)
@@ -525,11 +539,45 @@
 Hemimyzon pengi (Huang, 1982)
 Hemimyzon pumilicorpora Zheng &amp; Zhang, 1987
 Hemimyzon sheni Chen &amp; Fang, 2009
-Hemimyzon songamensis Nguyen, 2005 - (non reconnu par Kottelat, M. (2012)[2])
+Hemimyzon songamensis Nguyen, 2005 - (non reconnu par Kottelat, M. (2012))
 Hemimyzon taitungensis Tzeng &amp; Shen, 1982
-Hemimyzon yaotanensis (Fang, 1931)
-Note
-Également selon Kottelat, M. (2012) - (16 espèces)[2]:
+Hemimyzon yaotanensis (Fang, 1931)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hemimyzon</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hemimyzon</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Également selon Kottelat, M. (2012) - (16 espèces):
 Hemimyzon elongata (Y. R. Chen &amp; Z. Y. Li, 1985)
 Hemimyzon nujiangensis (W. Zhang &amp; C. Y. Zheng, 1983)
 Hemimyzon tchangi C. Y. Zheng, 1982</t>
